--- a/test.xlsx
+++ b/test.xlsx
@@ -117,10 +117,10 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -196,7 +196,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -219,7 +219,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
